--- a/medicine/Premiers secours et secourisme/Divers_Alert_Network/Divers_Alert_Network.xlsx
+++ b/medicine/Premiers secours et secourisme/Divers_Alert_Network/Divers_Alert_Network.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 DAN (Divers Alert Network) est une organisation à but non lucratif portant assistance aux plongeurs le nécessitant. Le département de recherche DAN mène des travaux de recherche significatifs sur la plongée loisir. Les études effectuées par DAN sont soutenues par les dons, les souscriptions découvrent des informations importants qui vont servir à toute la communauté et améliorer la sécurité en plongée loisir à travers le monde. Le département de médecine DAN répond aux questions en médecine hyperbare.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1977, Undersea Medical Society — plus tard, la Undersea and Hyperbaric Medical Society (en) — introduit le concept d'organisation nationale, pour remplacer LEO-FAST à la  Brooks Air Force Base, dirigée par le médecin-colonel Jefferson Davis. Grâce à cette organisation, un seul numéro de téléphone permettrait de joindre un spécialiste en médecine hyperbare, 24 h sur 24. Le docteur Peter B. Bennett reçu un prêt sur deux ans de la part de la National Oceanic and Atmospheric Administration.
 En 1981, DAN publie Underwater Diving Accident Manual. Le centre hyperbare reçoit 305 appels pour demander des informations et de l'aide. 
@@ -546,7 +560,9 @@
           <t>Communication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DAN Europe dispose d'une revue trimestrielle, Alert diver, éditée trimestriellement en Italie en plusieurs langues.
 </t>
